--- a/Archivos/P2/TecnicasDeMuestreo_IsaacOña.xlsx
+++ b/Archivos/P2/TecnicasDeMuestreo_IsaacOña.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISAAC\Desktop\Ingenieria de Software\Tercer Semestre\ESTADISTICA\Parcial 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISAAC\Desktop\Ingenieria de Software\Tercer Semestre\ESTADISTICA\Parcial 1\Proyecto\Estadistica\Estadistica\Archivos\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91D4B4-3212-4716-ADF9-DDB1BD36B8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7B073-7ADD-4F02-AAD1-2C9E2317991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B286324-AD8C-443D-8214-A287E771BC9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tipos de Muestreo" sheetId="2" r:id="rId1"/>
+    <sheet name="Pruebas de Hipotesis " sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Posición</t>
   </si>
@@ -82,12 +83,81 @@
   <si>
     <t xml:space="preserve">Sistemático </t>
   </si>
+  <si>
+    <t>Prueba z para medias de dos muestras</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Varianza (conocida)</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Diferencia hipotética de las medias</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P(Z&lt;=z) una cola</t>
+  </si>
+  <si>
+    <t>Valor crítico de z (una cola)</t>
+  </si>
+  <si>
+    <t>Valor crítico de z (dos colas)</t>
+  </si>
+  <si>
+    <t>Prueba t para medias de dos muestras emparejadas</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Coeficiente de correlación de Pearson</t>
+  </si>
+  <si>
+    <t>Grados de libertad</t>
+  </si>
+  <si>
+    <t>Estadístico t</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) una cola</t>
+  </si>
+  <si>
+    <t>Valor crítico de t (una cola)</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) dos colas</t>
+  </si>
+  <si>
+    <t>Valor crítico de t (dos colas)</t>
+  </si>
+  <si>
+    <t>Prueba t para dos muestras suponiendo varianzas iguales</t>
+  </si>
+  <si>
+    <t>Varianza agrupada</t>
+  </si>
+  <si>
+    <t>Prueba t para dos muestras suponiendo varianzas desiguales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +242,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,11 +391,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +468,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,20 +490,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,8 +608,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Cuadro de texto 23">
@@ -646,7 +759,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Cuadro de texto 23">
@@ -901,8 +1014,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>177625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="Cuadro de texto 23">
@@ -1243,7 +1356,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="Cuadro de texto 23">
@@ -1458,8 +1571,8 @@
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3181512" cy="451214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -1660,7 +1773,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -1852,8 +1965,8 @@
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3181512" cy="451214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2054,7 +2167,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2246,8 +2359,8 @@
       <xdr:rowOff>231</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3217932" cy="453266"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2464,7 +2577,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2664,8 +2777,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>177107</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 19">
@@ -2952,7 +3065,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 19">
@@ -3170,8 +3283,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>15471</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 20">
@@ -3458,7 +3571,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 20">
@@ -3676,8 +3789,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="Cuadro de texto 23">
@@ -4145,7 +4258,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="Cuadro de texto 23">
@@ -4393,8 +4506,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>21301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="Cuadro de texto 23">
@@ -4735,7 +4848,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="Cuadro de texto 23">
@@ -4904,8 +5017,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>128039</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="Cuadro de texto 23">
@@ -5294,7 +5407,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="Cuadro de texto 23">
@@ -5463,8 +5576,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>52070</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Cuadro de texto 23">
@@ -5853,7 +5966,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Cuadro de texto 23">
@@ -6022,8 +6135,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165562</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 21">
@@ -6310,7 +6423,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 21">
@@ -6789,8 +6902,8 @@
   </sheetPr>
   <dimension ref="A1:AO125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="AN29" sqref="AN29"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6802,11 +6915,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -6829,7 +6942,7 @@
       <c r="F3" s="1">
         <v>22.3</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2">
@@ -6859,10 +6972,10 @@
       <c r="AD3" s="1">
         <v>4</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AF3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="26">
+      <c r="AG3" s="22">
         <v>4</v>
       </c>
     </row>
@@ -6940,7 +7053,7 @@
         <v>63.2</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" ref="W5:W35" si="3">W4+1</f>
+        <f t="shared" ref="W5:W23" si="3">W4+1</f>
         <v>2</v>
       </c>
       <c r="X5" s="1">
@@ -6990,10 +7103,10 @@
       <c r="F6" s="1">
         <v>3.2</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="26"/>
       <c r="W6" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -7022,18 +7135,18 @@
       <c r="AD6" s="1">
         <v>3</v>
       </c>
-      <c r="AF6" s="27" t="s">
+      <c r="AF6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="28"/>
-      <c r="AJ6" s="23" t="s">
+      <c r="AG6" s="31"/>
+      <c r="AJ6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AK6" s="23"/>
-      <c r="AN6" s="31" t="s">
+      <c r="AK6" s="27"/>
+      <c r="AN6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AO6" s="31"/>
+      <c r="AO6" s="25"/>
     </row>
     <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -7063,10 +7176,10 @@
       <c r="K7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="24"/>
+      <c r="S7" s="28"/>
       <c r="W7" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7107,7 +7220,7 @@
       <c r="AK7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AN7" s="30" t="s">
+      <c r="AN7" s="24" t="s">
         <v>0</v>
       </c>
       <c r="AO7" s="21" t="s">
@@ -7382,10 +7495,10 @@
       <c r="K11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="27"/>
       <c r="R11" s="10">
         <v>26</v>
       </c>
@@ -8544,7 +8657,7 @@
       </c>
       <c r="R25" s="17"/>
       <c r="W25" s="5">
-        <f t="shared" ref="W25:W37" si="7">W24+1</f>
+        <f t="shared" ref="W25:W31" si="7">W24+1</f>
         <v>22</v>
       </c>
       <c r="X25" s="1">
@@ -8572,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="AJ25" s="15"/>
-      <c r="AN25" s="29"/>
+      <c r="AN25" s="23"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -8961,7 +9074,7 @@
         <v>25</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" ref="W33:W37" si="8">W32+1</f>
+        <f t="shared" ref="W33:W35" si="8">W32+1</f>
         <v>30</v>
       </c>
       <c r="X33" s="1">
@@ -9431,4 +9544,441 @@
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB5B833-A475-48C5-A333-FFCC318EFFC0}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="32">
+        <v>11.388235294117647</v>
+      </c>
+      <c r="C4" s="32">
+        <v>11.497727272727271</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="32">
+        <v>13.579999999999998</v>
+      </c>
+      <c r="G4" s="32">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="32">
+        <v>14.3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="32">
+        <v>107.08200000000002</v>
+      </c>
+      <c r="G5" s="32">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="32">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32">
+        <v>44</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="32">
+        <v>5</v>
+      </c>
+      <c r="G6" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="32">
+        <v>59.467000000000013</v>
+      </c>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="32">
+        <v>-0.12004199442044616</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.4522249408623864</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="32">
+        <v>9</v>
+      </c>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1.6768261262036508</v>
+      </c>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.90444988172477281</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="32">
+        <v>6.3945632385594281E-2</v>
+      </c>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="E12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.12789126477118856</v>
+      </c>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="33">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="32">
+        <v>22.583333333333332</v>
+      </c>
+      <c r="C18" s="32">
+        <v>27.766666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="32">
+        <v>560.07366666666667</v>
+      </c>
+      <c r="C19" s="32">
+        <v>227.60266666666629</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="32">
+        <v>6</v>
+      </c>
+      <c r="C20" s="32">
+        <v>6</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="32">
+        <v>14.75</v>
+      </c>
+      <c r="G20" s="32">
+        <v>13.579999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="32">
+        <v>-0.3361366255847334</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="E21" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="32">
+        <v>67.775000000000006</v>
+      </c>
+      <c r="G21" s="32">
+        <v>107.08200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32">
+        <v>0</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="E22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="32">
+        <v>6</v>
+      </c>
+      <c r="G22" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="32">
+        <v>5</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="E23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="32">
+        <v>-0.39605110872609234</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="E24" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="32">
+        <v>8</v>
+      </c>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0.35420166727700186</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="E25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.20456473332999076</v>
+      </c>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2.0150483733330233</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="E26" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.4215103823376084</v>
+      </c>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="32">
+        <v>0.70840333455400373</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="E27" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="32">
+        <v>1.8595480375308981</v>
+      </c>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="33">
+        <v>2.570581835636315</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="E28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.8430207646752168</v>
+      </c>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2.3060041352041671</v>
+      </c>
+      <c r="G29" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>